--- a/medicine/Enfance/Fifi_Brindacier/Fifi_Brindacier.xlsx
+++ b/medicine/Enfance/Fifi_Brindacier/Fifi_Brindacier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fifi Brindacier (en suédois : Pippi Långstrump, soit « Pippi longues chaussettes »), de son nom complet Fifilolotte Victuaille Cataplasme Tampon Fille d'Efraïm Brindacier (en suédois : Pippilotta Viktualia Rullgardina Krusmynta Efraimsdotter Långstrump) est le personnage principal d'une série de romans pour enfants écrits à partir de 1945 par la romancière suédoise Astrid Lindgren.
@@ -514,10 +526,12 @@
           <t>Personnage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Astrid Lindgren, « La petite fille - Fifi - représente ma propre recherche d'une figure qui possède du pouvoir mais n'en abuse pas »[1].
-Fifi Brindacier est une enfant aux cheveux roux et au visage constellé de taches de rousseur possédant une force hors du commun. Elle se proclame elle-même « La petite fille la plus forte du monde »[1]. Elle résout généralement les conflits de manière non violente et protège les autres enfants. Fifi a été fréquemment décrite par les critiques littéraires comme chaleureuse, pleine de compassion, gentille, futée, généreuse, joueuse, maligne jusqu'au point de surpasser les adultes dans l'art de la conversation. Laura Hoffeld[Qui ?] écrit que même si « la nature de Fifi tend vers l'égoïsme, l'ignorance et le mensonge », elle « est simultanément généreuse, rapide et sage, et sincère envers elle-même et les autres »[réf. nécessaire].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Astrid Lindgren, « La petite fille - Fifi - représente ma propre recherche d'une figure qui possède du pouvoir mais n'en abuse pas ».
+Fifi Brindacier est une enfant aux cheveux roux et au visage constellé de taches de rousseur possédant une force hors du commun. Elle se proclame elle-même « La petite fille la plus forte du monde ». Elle résout généralement les conflits de manière non violente et protège les autres enfants. Fifi a été fréquemment décrite par les critiques littéraires comme chaleureuse, pleine de compassion, gentille, futée, généreuse, joueuse, maligne jusqu'au point de surpasser les adultes dans l'art de la conversation. Laura Hoffeld[Qui ?] écrit que même si « la nature de Fifi tend vers l'égoïsme, l'ignorance et le mensonge », elle « est simultanément généreuse, rapide et sage, et sincère envers elle-même et les autres »[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fifi, le personnage principal de la série de romans, vit dans la Villa Drôlederepos (également appelée Villa « Villekula ») avec Monsieur Nilsson (ou Monsieur Dupont), un petit singe, et Oncle Alfred, un cheval. Cette petite fille rousse de neuf ans, « pas plus haute que trois pommes », a pour père le capitaine Efraïm Brindacier, le roi des mers du Sud. Avant qu'il ne devienne roi, il était pirate et on l'appelait la terreur des mers du Nord. Selon Fifi, il serait trop gros pour se noyer. 
 Fifi est également très riche (elle possède un coffre rempli de pièces d'or) et très forte (elle est capable de porter son cheval et d'échapper à deux policiers). Elle a deux amis, Annika et Tommy Settergren, qui habitent la maison voisine de celle de Fifi. Ces deux derniers sont souvent impressionnés par Fifi qui peut se coucher quand elle le désire ou encore monter sur le mobilier de sa villa et s'amuser avec ce qui lui plaît.
@@ -578,9 +594,11 @@
           <t>Genèse de l'œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jens Andersen, biographe d'Astrid Lindgren, indique de nombreuses sources d'influence et d'inspiration pour le personnage de Fifi, comme les théories éducatives des années 1930, dont celles de A.S. Neill et Bertrand Russell, mais aussi des films et comics contemporains où figuraient des personnages prodigieusement forts (ex. Superman et Tarzan). Les références littéraires sont aussi nombreuses, comme Les Aventures d'Alice au pays des merveilles, Anne… la maison aux pignons verts et Papa longues jambes, qui s'ajoutent à des mythes, contes de fées et légendes[2]. Andersen ajoute que le contexte misanthrope et émotionnellement refréné de la Seconde Guerre mondiale a été une des plus grandes influences dans l'écriture du personnage de Fifi par Lindgren, présentée comme pacifiste, généreuse et bienveillante.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jens Andersen, biographe d'Astrid Lindgren, indique de nombreuses sources d'influence et d'inspiration pour le personnage de Fifi, comme les théories éducatives des années 1930, dont celles de A.S. Neill et Bertrand Russell, mais aussi des films et comics contemporains où figuraient des personnages prodigieusement forts (ex. Superman et Tarzan). Les références littéraires sont aussi nombreuses, comme Les Aventures d'Alice au pays des merveilles, Anne… la maison aux pignons verts et Papa longues jambes, qui s'ajoutent à des mythes, contes de fées et légendes. Andersen ajoute que le contexte misanthrope et émotionnellement refréné de la Seconde Guerre mondiale a été une des plus grandes influences dans l'écriture du personnage de Fifi par Lindgren, présentée comme pacifiste, généreuse et bienveillante.
 Astrid Lindgren crée en 1941 le personnage de Fifi Brindacier pour sa fille Karin, souffrant d'une inflammation pulmonaire, qui adore écouter les histoires racontées par sa mère. Lindgren invente des histoires à propos d'une fille « tout-sauf-sainte » avec une « énergie sans limite ». Petite fille, Karin s'identifie à Annika et Tommy plutôt qu'à Fifi, qui semble avoir une personnalité très différente de la sienne.
 Peu à peu, Fifi Brindacier devient célèbre auprès des cousins et amis de Karin, qui aiment eux aussi suivre ses aventures. En 1944, en se remettant d'une cheville foulée, Astrid Lindgren écrit les histoires de Fifi Brindacier en sténographie, une méthode qu'elle a utilisée pendant toute sa carrière d'écrivain. Une copie de la version finale du manuscrit a été transformée en un livre fait maison et a été offerte à Karin le 21 mai, en même temps qu'une autre était envoyée chez l'éditeur Bonnier Förlag, où elle a été rejetée en septembre pour être « trop avancée ».
 Les éditions danoises ont été illustrées par Ingrid Vang Nyman (1916-1959).
@@ -612,11 +630,13 @@
           <t>Accueil critique et postérité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce personnage hors du commun a contribué à lutter contre les représentations stéréotypées et sexistes des enfants dans les livres pour la jeunesse. Lors des premières publications, Fifi Brindacier fut décriée, nombre d'adultes pensant qu'un personnage destiné aux enfants devait être sage et moins hors-norme. Sur la scène punk des années 1980 (surtout en Allemagne), on a pu voir des jeunes filles vêtues comme Fifi et des groupes interpréter le générique de la série télé, notamment Wizo et Die Frohlix. Fifi et Zora la rousse étaient des symboles politiques.
-Dans la trilogie suédoise de polars Millénium (2005-2007), le personnage de Lisbeth Salander est inspiré de Fifi Brindacier. Il y est d'ailleurs fait référence à de nombreuses reprises dans le texte[3].
-Dans le jeu vidéo World of Warcraft, le personnage vendeur de chevaux des montagnes pour les Worgen à Darnassus, Astrid Langstrump, est inspiré de Fifi Brindacier et de l'autrice des romans[4].
+Dans la trilogie suédoise de polars Millénium (2005-2007), le personnage de Lisbeth Salander est inspiré de Fifi Brindacier. Il y est d'ailleurs fait référence à de nombreuses reprises dans le texte.
+Dans le jeu vidéo World of Warcraft, le personnage vendeur de chevaux des montagnes pour les Worgen à Darnassus, Astrid Langstrump, est inspiré de Fifi Brindacier et de l'autrice des romans.
 </t>
         </is>
       </c>
@@ -645,11 +665,13 @@
           <t>Versions expurgées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à de nombreux autres pays, les éditeurs français boudent Fifi Brindacier malgré le grand succès de la première édition française en 1951 : cette traduction chez Hachette est en réalité une adaptation pour la jeunesse française, tant elle est éloignée du texte original.
-La traduction fait de Fifi une « anarchiste en camisole de force » [5],[6]. Peu de rééditions paraîtront jusqu'à la nouvelle traduction de 1995[7].
-En 2015, le texte des aventures a été revu en Suède en raison de certains passages jugés racistes : le père de Fifi qui était désigné comme « le roi des Nègres » est devenu « le roi des mers du Sud »[8].
+La traduction fait de Fifi une « anarchiste en camisole de force » ,. Peu de rééditions paraîtront jusqu'à la nouvelle traduction de 1995.
+En 2015, le texte des aventures a été revu en Suède en raison de certains passages jugés racistes : le père de Fifi qui était désigné comme « le roi des Nègres » est devenu « le roi des mers du Sud ».
 </t>
         </is>
       </c>
@@ -678,7 +700,9 @@
           <t>Liste des éditions françaises</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(liste établie selon le site de la Bibliothèque nationale de France. La 1re date est celle de la 1re parution française)
 1951 : Mademoiselle Brindacier (Pippi Långstrump, 1944) Traduit par Marie Loewegren, illustré par Mixi-Bérel ; Hachette, coll. « Bibliothèque rose illustrée », 253 p.Réédition en 1962 sous le titre : Fifi Brindacier, traduit par Marie Loewegren, illustré par Noëlle Lavaivre, Hachette, coll. « Nouvelle bibliothèque rose » no 104.Nouvelle traduction en 1995 d'Alain Gnaedig, illustré par Daniel Maja.
@@ -712,10 +736,12 @@
           <t>Les noms de Fifi dans différentes langues</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Dans les œuvres originales suédoises, Fifi se prénomme Pippilotta Viktualia Rullgardina Krusmynta Efraimsdotter Långstrump, certains de ces mots n'étant pas traduisibles en français.
-En 2019, le livre a été traduit dans 75 langues[9]. Voici la liste de certains des noms complets de Fifi Brindacier dans d'autres langues que le français :
+En 2019, le livre a été traduit dans 75 langues. Voici la liste de certains des noms complets de Fifi Brindacier dans d'autres langues que le français :
 Afrikaans : Pippi Langkous
 Albanais : Pipi Çorapegjata
 Allemand : Pippi Langstrumpf, de son nom complet Pippilotta Viktualia Rollgardina Pfefferminz Efraimstochter Langstrumpf
@@ -741,7 +767,7 @@
 Féroïen : Pippi Langsokk
 Finnois : Peppi Pitkätossu, de son nom complet Peppilotta Sikuriina Rullakartiina Kissanminttu Efraimintytär Pitkätossu
 Français : Fifi Brindacier, de son nom complet Fifilolotte Victuaille Cataplasme Tampon Fille d'Efraïm Brindacier ou  Fifilotta Provisionia Garbadinia Pimprenella Brindacier
-Gaélique écossais : Pippi Fhad-stocainneach, de son nom complet Pippilottag Biotailteag Crochbhratag Cluaranag NicEphraim Fhad-stocainneach[10]
+Gaélique écossais : Pippi Fhad-stocainneach, de son nom complet Pippilottag Biotailteag Crochbhratag Cluaranag NicEphraim Fhad-stocainneach
 Galicien: Pippi Mediaslongas, de son nom complet Pippilota Victualia Cortinela Piperminta Efraímez Mediaslongas
 Gallois : Pippi Hosan-hir
 Géorgien : პეპი გრძელი წინდა (pepi grjeli cinda) ou პეპი მაღალიწინდ (pepi maḡalicind), de son nom complet პეპილოტა ვიქტუალინა როლგარდინა ეფრაიმსდოტერ გრძელი წინდა (pepilota vik'tualina rolgardina ep'raimsdoter grjeli cinda)
@@ -803,7 +829,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Fifi Brindacier (Pippi Långstrumo), une série télévisée germano-suédoise réalisée en 1969 par Olle Hellbom et portant sur le personnage éponyme ;
 Fifi Brindacier et les Pirates (Pippi Långstrump på de sju haven), un long métrage suédois réalisé par Olle Hellbom en 1970 ;
